--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject40.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject40.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.76682983652881687</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.99592686518003193</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -251,7 +251,7 @@
         <v>0</v>
       </c>
       <c r="AP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ1" s="0">
         <v>0</v>
@@ -269,7 +269,7 @@
         <v>0</v>
       </c>
       <c r="AV1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.702970001129959</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.63648539477105048</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.907249101897178</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.9433722397428933</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.81358964697619318</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
       </c>
       <c r="AO2" s="0">
-        <v>0</v>
+        <v>0.87448648584875244</v>
       </c>
       <c r="AP2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.66123649668838758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.76821208105737782</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.89994953503268582</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.76268134621736994</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>0</v>
+        <v>0.73376532500360891</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="BF3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.81374293228114425</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.59806794573696687</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="0">
-        <v>0</v>
+        <v>0.90651763055132939</v>
       </c>
       <c r="AS4" s="0">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="0">
-        <v>0</v>
+        <v>0.66731901521137327</v>
       </c>
       <c r="BN4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.87300552271672371</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.70541149368193823</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.56036429779902741</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.93496117610854501</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.97773723464188156</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.93500546928525408</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.81062779818158481</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.91216759399777514</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.76530320553705256</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.78010031759835063</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="0">
-        <v>0</v>
+        <v>0.93095935363186155</v>
       </c>
       <c r="AH7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.72419251867574064</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.83093398040149036</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.97560291787987397</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>0</v>
+        <v>0.75699831750012736</v>
       </c>
       <c r="N8" s="0">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.97032776308452706</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.91627418835532626</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.91579753249569706</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="0">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0">
-        <v>0</v>
+        <v>0.95511805578844244</v>
       </c>
       <c r="AD9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.73456768665164851</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.56660046914396145</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="0">
-        <v>0</v>
+        <v>0.60320258810678284</v>
       </c>
       <c r="AM10" s="0">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AV10" s="0">
-        <v>0</v>
+        <v>0.79971994667041368</v>
       </c>
       <c r="AW10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.83275766942991292</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.8163238678166661</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="0">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>0</v>
+        <v>0.71899100302122188</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="BO11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.52478618907876884</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.66379054851878494</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.78509489865679949</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.55854027217907365</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>0</v>
+        <v>0.96633008170315904</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.7709366149546012</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.72754128862493928</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="0">
-        <v>0</v>
+        <v>0.5573941527220494</v>
       </c>
       <c r="T13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.63103805208536234</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.91492819619526411</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.58680298460301272</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="0">
-        <v>0</v>
+        <v>0.68764453380413104</v>
       </c>
       <c r="AU14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.67939783301909928</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.6543487458893481</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.67115520240967608</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="0">
-        <v>0</v>
+        <v>0.77185302700497105</v>
       </c>
       <c r="AT15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.89342612919605213</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.61886676401999452</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.84376814703996672</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.61355604059889424</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.85884516057155735</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.52986633717348497</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.97018862636767533</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="0">
         <v>0</v>
@@ -3592,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="BE17" s="0">
-        <v>0</v>
+        <v>0.69632467410636179</v>
       </c>
       <c r="BF17" s="0">
-        <v>0</v>
+        <v>0.84592993098418434</v>
       </c>
       <c r="BG17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.97009114076574465</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.59182931748200218</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.54193284746740367</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.67880016828242007</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="0">
-        <v>0</v>
+        <v>0.57297479897250381</v>
       </c>
       <c r="N19" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.52763028188733552</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.58569493938210615</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.7393997136853705</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.7571582755156947</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.97109998025900102</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.56924803769384602</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="0">
-        <v>0</v>
+        <v>0.50807418992327713</v>
       </c>
       <c r="BF20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0</v>
+        <v>0.77159149606233202</v>
       </c>
       <c r="AK21" s="0">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="0">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="BJ21" s="0">
-        <v>0</v>
+        <v>0.96151115291120093</v>
       </c>
       <c r="BK21" s="0">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="BN21" s="0">
-        <v>0</v>
+        <v>0.5595136827472853</v>
       </c>
       <c r="BO21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.63584935832887302</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.77596802601044024</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.5543079279883637</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="0">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.83219544253872879</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.54353210724955203</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.69366118226227136</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.96485132648864402</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.90924598419404568</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.98593739856807505</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.96871769126933804</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>0</v>
+        <v>0.5291914580676027</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="BK24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24" s="0">
         <v>0</v>
@@ -5138,16 +5138,16 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.84783032489727739</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.68427810183299687</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="AH25" s="0">
-        <v>0</v>
+        <v>0.66987650024962453</v>
       </c>
       <c r="AI25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>0</v>
+        <v>0.83055552273050526</v>
       </c>
       <c r="AX25" s="0">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.72186599992461598</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0</v>
+        <v>0.79530812216265034</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="0">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="BC26" s="0">
-        <v>0</v>
+        <v>0.87293286310248908</v>
       </c>
       <c r="BD26" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0</v>
+        <v>0.51798992590910908</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5559,22 +5559,22 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0</v>
+        <v>0.5102730120364054</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.59449466003394913</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
       </c>
       <c r="AE27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="0">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="0">
-        <v>0</v>
+        <v>0.72774679758229754</v>
       </c>
       <c r="AM27" s="0">
         <v>0</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.57717345879761717</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.95281693198066231</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.5226881591389283</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>0</v>
+        <v>0.60780931139928285</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.76158788066433281</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.99874622025931592</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.6590762240849759</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO29" s="0">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.7034320434522896</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.87393444134069309</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.8997382865265291</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="0">
-        <v>0</v>
+        <v>0.5286405011266132</v>
       </c>
       <c r="AS30" s="0">
         <v>0</v>
@@ -6386,25 +6386,25 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.69215615992444346</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.66149566259962289</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.51838488489962709</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="AT31" s="0">
-        <v>0</v>
+        <v>0.86728888148813699</v>
       </c>
       <c r="AU31" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.80728562997089248</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.83555334788572655</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="0">
-        <v>0</v>
+        <v>0.5862889091306831</v>
       </c>
       <c r="AT32" s="0">
         <v>0</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="BC32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD32" s="0">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="0">
-        <v>0</v>
+        <v>0.7466481799992194</v>
       </c>
       <c r="H33" s="0">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0">
-        <v>0</v>
+        <v>0.59282817220643103</v>
       </c>
       <c r="Y33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.57165702905517102</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.90299667573422215</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.99756527483231983</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="BD33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE33" s="0">
         <v>0</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="0">
-        <v>0</v>
+        <v>0.567453452836016</v>
       </c>
       <c r="Z34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.66329403880364768</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.53126324126685232</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.64341143155171876</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>0</v>
+        <v>0.79569616829044865</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.54829067757326211</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.54309550930600425</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.61860318942709969</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="BB35" s="0">
-        <v>0</v>
+        <v>0.58420021100103781</v>
       </c>
       <c r="BC35" s="0">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="0">
-        <v>0</v>
+        <v>0.74164518657636525</v>
       </c>
       <c r="V36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.80056474361439123</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.66326265929993444</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7488,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>0</v>
+        <v>0.66641761188810378</v>
       </c>
       <c r="AZ36" s="0">
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>0</v>
+        <v>0.59529207985741928</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.89364355834418707</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.57738225283751499</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.93429251579828398</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>0</v>
+        <v>0.95727605584116437</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="BB37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC37" s="0">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>0</v>
+        <v>0.91816350672036129</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>0</v>
+        <v>0.949263574308157</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -7822,13 +7822,13 @@
         <v>0</v>
       </c>
       <c r="Y38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="0">
         <v>0</v>
       </c>
       <c r="AA38" s="0">
-        <v>0</v>
+        <v>0.70045603188246996</v>
       </c>
       <c r="AB38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.85462026933984592</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.73206463625203755</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.73175336984102723</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.55134606420257626</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.84371904298996192</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.86622597584481509</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.79927717963873957</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="0">
-        <v>0</v>
+        <v>0.65024495669735827</v>
       </c>
       <c r="AV39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.51537548003925404</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.97106467835067733</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>0</v>
+        <v>0.54882289569647136</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="0">
-        <v>0</v>
+        <v>0.63759956590239741</v>
       </c>
       <c r="C41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.83549460857778901</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.87241117003610169</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
@@ -8574,7 +8574,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.57211890994271253</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.68884831987141271</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>0</v>
+        <v>0.66299690775440301</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.6703290155755266</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="BE43" s="0">
-        <v>0</v>
+        <v>0.50184435879352907</v>
       </c>
       <c r="BF43" s="0">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="BI43" s="0">
-        <v>0</v>
+        <v>0.85859312558058809</v>
       </c>
       <c r="BJ43" s="0">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>0</v>
+        <v>0.73125422956191599</v>
       </c>
       <c r="E44" s="0">
         <v>0</v>
@@ -9070,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="AC44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="0">
-        <v>0</v>
+        <v>0.56185029632050232</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.86072765404364016</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.63363516109042217</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.7221068336982015</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0</v>
+        <v>0.64995171096490356</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="0">
-        <v>0</v>
+        <v>0.85013735780669575</v>
       </c>
       <c r="AG45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.92672905157828478</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.72231223111673959</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>0</v>
+        <v>0.82390487419862013</v>
       </c>
       <c r="O46" s="0">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="AE46" s="0">
-        <v>0</v>
+        <v>0.79884611724465238</v>
       </c>
       <c r="AF46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.53409213734466066</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.86312919362545681</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.94732053775688196</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="0">
-        <v>0</v>
+        <v>0.95848995548874361</v>
       </c>
       <c r="AN47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.59061070470570032</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.8618209408473152</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.51932509225261037</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM47" s="0">
         <v>0</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="0">
-        <v>0</v>
+        <v>0.894342148930934</v>
       </c>
       <c r="K48" s="0">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0</v>
+        <v>0.64676270240057909</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.60043093847799756</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="BH48" s="0">
-        <v>0</v>
+        <v>0.65130002130584763</v>
       </c>
       <c r="BI48" s="0">
         <v>0</v>
@@ -10088,10 +10088,10 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>0</v>
+        <v>0.71482783557429364</v>
       </c>
       <c r="Z49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.92356002250940228</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10163,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0</v>
+        <v>0.56010559738165488</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.72992205753812245</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0</v>
+        <v>0.81073373903005919</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.91174014302865802</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.56231441410083183</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>0</v>
+        <v>0.78540168418077183</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.57507040823972511</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.82270643736069204</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.87674552354277258</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="BE51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
@@ -10751,13 +10751,13 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>0</v>
+        <v>0.841051956583586</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
       </c>
       <c r="AP52" s="0">
-        <v>0</v>
+        <v>0.86251278979999113</v>
       </c>
       <c r="AQ52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.77485620911080244</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10790,10 +10790,10 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.61161778462780703</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.85263287532061027</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" s="0">
         <v>0</v>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="0">
-        <v>0</v>
+        <v>0.77686893565481663</v>
       </c>
       <c r="AK53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.8280744117203902</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.58945471003915251</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.51871585455743141</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.98077857393607182</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11148,13 +11148,13 @@
         <v>0</v>
       </c>
       <c r="AI54" s="0">
-        <v>0</v>
+        <v>0.87772536989475725</v>
       </c>
       <c r="AJ54" s="0">
         <v>0</v>
       </c>
       <c r="AK54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.77473281207944367</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.90493438840691132</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.80403610453657859</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK54" s="0">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="0">
-        <v>0</v>
+        <v>0.5795885904857655</v>
       </c>
       <c r="AA55" s="0">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.82761901446754604</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.81392109310040939</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.67345693910880056</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.61860478916937289</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -11554,10 +11554,10 @@
         <v>0</v>
       </c>
       <c r="AG56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>0</v>
+        <v>0.52863845838050794</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.85881267739249156</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.72766357178631713</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.50364401782575818</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0</v>
+        <v>0.51252567570782359</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>0</v>
+        <v>0.6152679011839981</v>
       </c>
       <c r="U57" s="0">
         <v>0</v>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="0">
-        <v>0</v>
+        <v>0.89011414929267518</v>
       </c>
       <c r="AR57" s="0">
         <v>0</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="AY57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.93142683400912807</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.62682840739722123</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.97702100964061356</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>0</v>
+        <v>0.57465241596246597</v>
       </c>
       <c r="R58" s="0">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.98319150509419984</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.84916037199306449</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.93151777975834293</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.83857760546745452</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.52166833732854001</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.94033512597897784</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AV60" s="0">
-        <v>0</v>
+        <v>0.51333417882759469</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.93967656159412383</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.78563152829766969</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="0">
-        <v>0</v>
+        <v>0.62141150097155462</v>
       </c>
       <c r="AR61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.76617923342674954</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.96057032026408118</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.69625650585122401</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="0">
-        <v>0</v>
+        <v>0.58071711496445588</v>
       </c>
       <c r="V62" s="0">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="BB62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC62" s="0">
         <v>0</v>
@@ -12871,10 +12871,10 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.5288403758141087</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.76732246981666175</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,10 +12883,10 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.54524041171483872</v>
       </c>
       <c r="BM62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN62" s="0">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.79180447796382447</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13089,10 +13089,10 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.90142056323801456</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.82257839167997382</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.58835277590924351</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.72807698082798833</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.529404574856148</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.95460872462848112</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="0">
-        <v>0</v>
+        <v>0.62277095803163529</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -13495,22 +13495,22 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.86929706703337062</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.56267829348144138</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.88738052193590278</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="0">
-        <v>0</v>
+        <v>0.67698532858814664</v>
       </c>
       <c r="V66" s="0">
         <v>0</v>
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.78058886209955869</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.66940591061598609</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.63585638059374716</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.63387976368469201</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.70783710240559872</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13754,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.56937768907857456</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.70032653674758527</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.81700234240870917</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.72348244641236459</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.50285358031001148</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.93369307475193741</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject40.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject40.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.76682983652881687</v>
+        <v>0.907249101897178</v>
       </c>
       <c r="C1" s="0">
         <v>0.99592686518003193</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.702970001129959</v>
+        <v>0.70783710240559872</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.63648539477105048</v>
+        <v>0.81700234240870917</v>
       </c>
     </row>
     <row r="2">
@@ -343,7 +343,7 @@
         <v>0.9433722397428933</v>
       </c>
       <c r="D2" s="0">
-        <v>0.81358964697619318</v>
+        <v>0.81374293228114425</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -535,15 +535,15 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.66123649668838758</v>
+        <v>0.72348244641236459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.76821208105737782</v>
+        <v>0.99592686518003193</v>
       </c>
       <c r="B3" s="0">
-        <v>0.89994953503268582</v>
+        <v>0.9433722397428933</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0.76268134621736994</v>
+        <v>0.87300552271672371</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.73376532500360891</v>
+        <v>0.91816350672036129</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.59806794573696687</v>
+        <v>0.70541149368193823</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.56036429779902741</v>
+        <v>0.97773723464188156</v>
       </c>
       <c r="G5" s="0">
         <v>0.93496117610854501</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.91216759399777514</v>
+        <v>0.93496117610854501</v>
       </c>
       <c r="F7" s="0">
-        <v>0.76530320553705256</v>
+        <v>0.93500546928525408</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.78010031759835063</v>
+        <v>0.97032776308452706</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.72419251867574064</v>
+        <v>0.81062779818158481</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.83093398040149036</v>
+        <v>0.91627418835532626</v>
       </c>
       <c r="J8" s="0">
         <v>0.97560291787987397</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>0.75699831750012736</v>
+        <v>0.96633008170315904</v>
       </c>
       <c r="N8" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.73456768665164851</v>
+        <v>0.97560291787987397</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="0">
-        <v>0.60320258810678284</v>
+        <v>0.949263574308157</v>
       </c>
       <c r="AM10" s="0">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AV10" s="0">
-        <v>0.79971994667041368</v>
+        <v>0.894342148930934</v>
       </c>
       <c r="AW10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.83275766942991292</v>
+        <v>0.91579753249569706</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.52478618907876884</v>
+        <v>0.56660046914396145</v>
       </c>
       <c r="K12" s="0">
-        <v>0.66379054851878494</v>
+        <v>0.8163238678166661</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0.78509489865679949</v>
       </c>
       <c r="N12" s="0">
-        <v>0.55854027217907365</v>
+        <v>0.63103805208536234</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0.7709366149546012</v>
+        <v>0.78509489865679949</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="0">
-        <v>0.5573941527220494</v>
+        <v>0.57297479897250381</v>
       </c>
       <c r="T13" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0.91492819619526411</v>
       </c>
       <c r="P14" s="0">
-        <v>0.58680298460301272</v>
+        <v>0.89342612919605213</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="0">
-        <v>0.68764453380413104</v>
+        <v>0.82390487419862013</v>
       </c>
       <c r="AU14" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.67939783301909928</v>
+        <v>0.72754128862493928</v>
       </c>
       <c r="N15" s="0">
-        <v>0.6543487458893481</v>
+        <v>0.91492819619526411</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.61886676401999452</v>
+        <v>0.85884516057155735</v>
       </c>
       <c r="R16" s="0">
-        <v>0.84376814703996672</v>
+        <v>0.97009114076574465</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.61355604059889424</v>
+        <v>0.67115520240967608</v>
       </c>
       <c r="P17" s="0">
         <v>0.85884516057155735</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.52986633717348497</v>
+        <v>0.59182931748200218</v>
       </c>
       <c r="S17" s="0">
         <v>0.97018862636767533</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.54193284746740367</v>
+        <v>0.58569493938210615</v>
       </c>
       <c r="T18" s="0">
-        <v>0.67880016828242007</v>
+        <v>0.7571582755156947</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.52763028188733552</v>
+        <v>0.97018862636767533</v>
       </c>
       <c r="R19" s="0">
         <v>0.58569493938210615</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.7393997136853705</v>
+        <v>0.97109998025900102</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.56924803769384602</v>
+        <v>0.63584935832887302</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="0">
-        <v>0.50807418992327713</v>
+        <v>0.6152679011839981</v>
       </c>
       <c r="BF20" s="0">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="BN21" s="0">
-        <v>0.5595136827472853</v>
+        <v>0.67698532858814664</v>
       </c>
       <c r="BO21" s="0">
         <v>0</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.77596802601044024</v>
+        <v>0.83219544253872879</v>
       </c>
       <c r="X22" s="0">
-        <v>0.5543079279883637</v>
+        <v>0.96485132648864402</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.54353210724955203</v>
+        <v>0.90924598419404568</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.69366118226227136</v>
+        <v>0.84783032489727739</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>0.5291914580676027</v>
+        <v>0.59282817220643103</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0.84783032489727739</v>
       </c>
       <c r="X25" s="0">
-        <v>0.68427810183299687</v>
+        <v>0.98593739856807505</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.72186599992461598</v>
+        <v>0.96871769126933804</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0.51798992590910908</v>
+        <v>0.71899100302122188</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.5102730120364054</v>
+        <v>0.79530812216265034</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.57717345879761717</v>
+        <v>0.59449466003394913</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0.95281693198066231</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.5226881591389283</v>
+        <v>0.7034320434522896</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>0.60780931139928285</v>
+        <v>0.95511805578844244</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.76158788066433281</v>
+        <v>0.95281693198066231</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0.99874622025931592</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.6590762240849759</v>
+        <v>0.69215615992444346</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0.7034320434522896</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.87393444134069309</v>
+        <v>0.99874622025931592</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="0">
-        <v>0.5286405011266132</v>
+        <v>0.56185029632050232</v>
       </c>
       <c r="AS30" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0.69215615992444346</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.66149566259962289</v>
+        <v>0.8997382865265291</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.51838488489962709</v>
+        <v>0.57165702905517102</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.80728562997089248</v>
+        <v>0.90299667573422215</v>
       </c>
       <c r="AH32" s="0">
         <v>0.83555334788572655</v>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="0">
-        <v>0.5862889091306831</v>
+        <v>0.85013735780669575</v>
       </c>
       <c r="AT32" s="0">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="0">
-        <v>0.7466481799992194</v>
+        <v>0.93095935363186155</v>
       </c>
       <c r="H33" s="0">
         <v>0</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="0">
-        <v>0.567453452836016</v>
+        <v>0.66987650024962453</v>
       </c>
       <c r="Z34" s="0">
         <v>0</v>
@@ -7019,10 +7019,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.66329403880364768</v>
+        <v>0.83555334788572655</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.53126324126685232</v>
+        <v>0.99756527483231983</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7231,16 +7231,16 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.54829067757326211</v>
+        <v>0.64341143155171876</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.54309550930600425</v>
+        <v>0.80056474361439123</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.61860318942709969</v>
+        <v>0.89364355834418707</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="BB35" s="0">
-        <v>0.58420021100103781</v>
+        <v>0.87772536989475725</v>
       </c>
       <c r="BC35" s="0">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="0">
-        <v>0.74164518657636525</v>
+        <v>0.77159149606233202</v>
       </c>
       <c r="V36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.66326265929993444</v>
+        <v>0.85462026933984592</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7488,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>0.66641761188810378</v>
+        <v>0.78540168418077183</v>
       </c>
       <c r="AZ36" s="0">
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>0.59529207985741928</v>
+        <v>0.77686893565481663</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.57738225283751499</v>
+        <v>0.73206463625203755</v>
       </c>
       <c r="AM37" s="0">
         <v>0.93429251579828398</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="0">
-        <v>0.70045603188246996</v>
+        <v>0.72774679758229754</v>
       </c>
       <c r="AB38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.73175336984102723</v>
+        <v>0.86622597584481509</v>
       </c>
       <c r="AN38" s="0">
         <v>0.55134606420257626</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.84371904298996192</v>
+        <v>0.93429251579828398</v>
       </c>
       <c r="AL39" s="0">
         <v>0.86622597584481509</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.79927717963873957</v>
+        <v>0.83549460857778901</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="0">
-        <v>0.65024495669735827</v>
+        <v>0.95848995548874361</v>
       </c>
       <c r="AV39" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.51537548003925404</v>
+        <v>0.55134606420257626</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>0.54882289569647136</v>
+        <v>0.841051956583586</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="0">
-        <v>0.63759956590239741</v>
+        <v>0.87448648584875244</v>
       </c>
       <c r="C41" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.57211890994271253</v>
+        <v>0.97106467835067733</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.68884831987141271</v>
+        <v>0.86072765404364016</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>0.66299690775440301</v>
+        <v>0.86251278979999113</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.6703290155755266</v>
+        <v>0.87241117003610169</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="BE43" s="0">
-        <v>0.50184435879352907</v>
+        <v>0.89011414929267518</v>
       </c>
       <c r="BF43" s="0">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>0.73125422956191599</v>
+        <v>0.90651763055132939</v>
       </c>
       <c r="E44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.63363516109042217</v>
+        <v>0.92672905157828478</v>
       </c>
       <c r="AT44" s="0">
         <v>0.7221068336982015</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0.64995171096490356</v>
+        <v>0.77185302700497105</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.72231223111673959</v>
+        <v>0.86312919362545681</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="AE46" s="0">
-        <v>0.79884611724465238</v>
+        <v>0.86728888148813699</v>
       </c>
       <c r="AF46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.53409213734466066</v>
+        <v>0.7221068336982015</v>
       </c>
       <c r="AS46" s="0">
         <v>0.86312919362545681</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.59061070470570032</v>
+        <v>0.94732053775688196</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.8618209408473152</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.51932509225261037</v>
+        <v>0.92356002250940228</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0.64676270240057909</v>
+        <v>0.95727605584116437</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.60043093847799756</v>
+        <v>0.8618209408473152</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>0.71482783557429364</v>
+        <v>0.83055552273050526</v>
       </c>
       <c r="Z49" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.56010559738165488</v>
+        <v>0.81073373903005919</v>
       </c>
       <c r="AY49" s="0">
         <v>0.72992205753812245</v>
@@ -10375,7 +10375,7 @@
         <v>0.91174014302865802</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.56231441410083183</v>
+        <v>0.77485620911080244</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.57507040823972511</v>
+        <v>0.72992205753812245</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.82270643736069204</v>
+        <v>0.91174014302865802</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10990,16 +10990,16 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.8280744117203902</v>
+        <v>0.87674552354277258</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.58945471003915251</v>
+        <v>0.61161778462780703</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.51871585455743141</v>
+        <v>0.90493438840691132</v>
       </c>
       <c r="BC53" s="0">
         <v>0.98077857393607182</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.77473281207944367</v>
+        <v>0.85263287532061027</v>
       </c>
       <c r="BA54" s="0">
         <v>0.90493438840691132</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.80403610453657859</v>
+        <v>0.81392109310040939</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="0">
-        <v>0.5795885904857655</v>
+        <v>0.87293286310248908</v>
       </c>
       <c r="AA55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.82761901446754604</v>
+        <v>0.98077857393607182</v>
       </c>
       <c r="BB55" s="0">
         <v>0.81392109310040939</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.67345693910880056</v>
+        <v>0.85881267739249156</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.61860478916937289</v>
+        <v>0.93142683400912807</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>0.52863845838050794</v>
+        <v>0.79569616829044865</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0.72766357178631713</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.50364401782575818</v>
+        <v>0.98319150509419984</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0.51252567570782359</v>
+        <v>0.69632467410636179</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0.93142683400912807</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.62682840739722123</v>
+        <v>0.72766357178631713</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>0.57465241596246597</v>
+        <v>0.84592993098418434</v>
       </c>
       <c r="R58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0.98319150509419984</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.84916037199306449</v>
+        <v>0.97702100964061356</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12247,13 +12247,13 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.83857760546745452</v>
+        <v>0.93151777975834293</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.52166833732854001</v>
+        <v>0.93967656159412383</v>
       </c>
       <c r="BI59" s="0">
         <v>0.94033512597897784</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AV60" s="0">
-        <v>0.51333417882759469</v>
+        <v>0.65130002130584763</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="0">
-        <v>0.62141150097155462</v>
+        <v>0.85859312558058809</v>
       </c>
       <c r="AR61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.76617923342674954</v>
+        <v>0.94033512597897784</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0.96057032026408118</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.69625650585122401</v>
+        <v>0.79180447796382447</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="0">
-        <v>0.58071711496445588</v>
+        <v>0.96151115291120093</v>
       </c>
       <c r="V62" s="0">
         <v>0</v>
@@ -12871,10 +12871,10 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.5288403758141087</v>
+        <v>0.78563152829766969</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.76732246981666175</v>
+        <v>0.96057032026408118</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.54524041171483872</v>
+        <v>0.58835277590924351</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0.90142056323801456</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.82257839167997382</v>
+        <v>0.86929706703337062</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13292,13 +13292,13 @@
         <v>0.58835277590924351</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.72807698082798833</v>
+        <v>0.90142056323801456</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.529404574856148</v>
+        <v>0.56267829348144138</v>
       </c>
       <c r="BN64" s="0">
         <v>0.95460872462848112</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="0">
-        <v>0.62277095803163529</v>
+        <v>0.66731901521137327</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.78058886209955869</v>
+        <v>0.95460872462848112</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.66940591061598609</v>
+        <v>0.88738052193590278</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13919,13 +13919,13 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.56937768907857456</v>
+        <v>0.63585638059374716</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.70032653674758527</v>
+        <v>0.93369307475193741</v>
       </c>
     </row>
     <row r="68">
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.50285358031001148</v>
+        <v>0.63387976368469201</v>
       </c>
       <c r="BO68" s="0">
         <v>0.93369307475193741</v>
